--- a/model/Auswertung/Infografiken/Ergebnis_Llama/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Llama/results.xlsx
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>39.02439024390244</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="M2" t="n">
         <v>4.878048780487805</v>
@@ -644,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>23.40425531914894</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="M3" t="n">
-        <v>8.51063829787234</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="N3" t="n">
         <v>2</v>
@@ -769,28 +769,28 @@
         <v>64</v>
       </c>
       <c r="I5" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>36.36363636363637</v>
+        <v>20.45454545454546</v>
       </c>
       <c r="M5" t="n">
-        <v>19.31818181818182</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
         <v>72.72727272727273</v>
       </c>
       <c r="P5" t="n">
-        <v>80.68181818181817</v>
+        <v>75</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -848,7 +848,7 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>3.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -903,28 +903,28 @@
         <v>44</v>
       </c>
       <c r="I7" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>18.36734693877551</v>
+        <v>10.20408163265306</v>
       </c>
       <c r="M7" t="n">
-        <v>4.081632653061225</v>
+        <v>6.122448979591836</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
         <v>89.79591836734694</v>
       </c>
       <c r="P7" t="n">
-        <v>95.91836734693877</v>
+        <v>93.87755102040816</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -979,10 +979,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>12.5</v>
+        <v>9.375</v>
       </c>
       <c r="M8" t="n">
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>63</v>
       </c>
       <c r="I9" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" t="n">
         <v>10</v>
@@ -1046,19 +1046,19 @@
         <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>45.56962025316456</v>
+        <v>26.58227848101265</v>
       </c>
       <c r="M9" t="n">
-        <v>11.39240506329114</v>
+        <v>20.25316455696203</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>79.74683544303798</v>
       </c>
       <c r="P9" t="n">
-        <v>88.60759493670885</v>
+        <v>86.07594936708861</v>
       </c>
       <c r="Q9" t="n">
         <v>0.9444444444444444</v>

--- a/model/Auswertung/Infografiken/Ergebnis_Llama/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Llama/results.xlsx
@@ -620,28 +620,28 @@
         <v>269</v>
       </c>
       <c r="B3" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0929</v>
+        <v>0.0781</v>
       </c>
       <c r="F3" t="n">
         <v>47</v>
       </c>
       <c r="G3" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -650,34 +650,34 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1915</v>
+        <v>0.1489</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1064</v>
+        <v>0.0638</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9318</v>
+        <v>0.9545</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9762</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8723</v>
+        <v>0.8935999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9111</v>
+        <v>0.9333</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9011</v>
+        <v>0.9231</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9425</v>
+        <v>0.9655</v>
       </c>
       <c r="T3" t="n">
         <v>0.9196</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5887</v>
+        <v>0.6119</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -775,10 +775,10 @@
         <v>88</v>
       </c>
       <c r="G5" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
         <v>6</v>
@@ -790,34 +790,34 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2273</v>
+        <v>0.2045</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1818</v>
+        <v>0.1591</v>
       </c>
       <c r="N5" t="n">
-        <v>0.925</v>
+        <v>0.9268</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9487</v>
+        <v>0.95</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8409</v>
+        <v>0.8636</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8605</v>
+        <v>0.8837</v>
       </c>
       <c r="R5" t="n">
-        <v>0.881</v>
+        <v>0.8941</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9024</v>
+        <v>0.9157</v>
       </c>
       <c r="T5" t="n">
         <v>0.9231</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3767</v>
+        <v>0.4079</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -970,25 +970,25 @@
         <v>252</v>
       </c>
       <c r="B8" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1389</v>
+        <v>0.0992</v>
       </c>
       <c r="F8" t="n">
         <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1000,34 +1000,34 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.0625</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.0625</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9677</v>
+        <v>0.9688</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9677</v>
+        <v>0.9688</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9375</v>
+        <v>0.9688</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9375</v>
+        <v>0.9688</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9524</v>
+        <v>0.9688</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9524</v>
+        <v>0.9688</v>
       </c>
       <c r="T8" t="n">
         <v>0.9847</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7735</v>
+        <v>0.796</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1040,64 +1040,64 @@
         <v>547</v>
       </c>
       <c r="B9" t="n">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="C9" t="n">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3912</v>
+        <v>0.2852</v>
       </c>
       <c r="F9" t="n">
         <v>79</v>
       </c>
       <c r="G9" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3291</v>
+        <v>0.1519</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2025</v>
+        <v>0.1013</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8532999999999999</v>
+        <v>0.9351</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9143</v>
+        <v>0.96</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8101</v>
+        <v>0.9114</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8649</v>
+        <v>0.9351</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8312</v>
+        <v>0.9231</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8889</v>
+        <v>0.9474</v>
       </c>
       <c r="T9" t="n">
         <v>0.8697</v>
       </c>
       <c r="U9" t="n">
-        <v>0.4802</v>
+        <v>0.5770999999999999</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>

--- a/model/Auswertung/Infografiken/Ergebnis_Llama/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_Llama/results.xlsx
@@ -547,67 +547,67 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B2" t="n">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08359999999999999</v>
+        <v>0.0289</v>
       </c>
       <c r="F2" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3902</v>
+        <v>0.2051</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0488</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8205</v>
+        <v>0.8974</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7805</v>
+        <v>0.8974</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9412</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8</v>
+        <v>0.8974</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9697</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6703</v>
+        <v>0.8279</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4934</v>
+        <v>0.7048</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B3" t="n">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0781</v>
+        <v>0.0428</v>
       </c>
       <c r="F3" t="n">
         <v>47</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B4" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1939</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>13</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="B5" t="n">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1624</v>
+        <v>0.144</v>
       </c>
       <c r="F5" t="n">
         <v>88</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="B6" t="n">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1473</v>
+        <v>0.0025</v>
       </c>
       <c r="F6" t="n">
         <v>60</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B7" t="n">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1933</v>
+        <v>0.0634</v>
       </c>
       <c r="F7" t="n">
         <v>49</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B8" t="n">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0992</v>
+        <v>0.0383</v>
       </c>
       <c r="F8" t="n">
         <v>32</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B9" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2852</v>
+        <v>0.1156</v>
       </c>
       <c r="F9" t="n">
         <v>79</v>
